--- a/www.eia.gov/electricity/monthly/xls/table_6_01_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_6_01_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t>Table 6.1.B. Net Summer Capacity for Estimated Distributed Solar Photovoltaic Capacity by Sector (Megawatts):</t>
   </si>
   <si>
-    <t>2014 - October 2016</t>
+    <t>2014 - November 2016</t>
   </si>
   <si>
     <t>Period</t>
@@ -990,7 +990,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -1687,18 +1687,35 @@
         <v>12575.5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="7">
+        <v>7241.5</v>
+      </c>
+      <c r="C44" s="7">
+        <v>4572.8999999999996</v>
+      </c>
+      <c r="D44" s="7">
+        <v>1049.0999999999999</v>
+      </c>
+      <c r="E44" s="7">
+        <v>12863.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A45:E45"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
